--- a/biology/Médecine/Revue_Clystère/Revue_Clystère.xlsx
+++ b/biology/Médecine/Revue_Clystère/Revue_Clystère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_Clyst%C3%A8re</t>
+          <t>Revue_Clystère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dirigée par le docteur Jean-Pierre Martin[1] qui l’a créée en 2011 (n° 1), l’ancienne revue électronique gratuite de langue française Clystère (ISSN 2257-7459[2] ; www.clystere.com)[3] était consacrée à l’histoire de la médecine, et surtout vue à travers ses instruments.
+Dirigée par le docteur Jean-Pierre Martin qui l’a créée en 2011 (n° 1), l’ancienne revue électronique gratuite de langue française Clystère (ISSN 2257-7459 ; www.clystere.com) était consacrée à l’histoire de la médecine, et surtout vue à travers ses instruments.
 « Pourquoi une E-revue sur l'objet médical ancien ? La réponse est simple. Les livres et articles parus dans les revues d'histoire de la médecine concernant les objets médicaux anciens sont rares. Et pourtant. Sans l'invention, le développement, et l'amélioration d'outils spécifiques à l'exercice de notre art, il est probable que la médecine n'aurait pas le même visage aujourd'hui. Nombre de maladies et de handicaps n'auraient pu être traités ou corrigés. Bien sûr, la chirurgie est la discipline dans laquelle le nombre d'outils est le plus important, mais les spécialités médicales se sont aussi dotées d'appareils dont l'histoire mérite d'être contée. Clystère a pour modeste objectif d'apporter aux historiens de la médecine, chaque mois, des articles sur divers objets médicaux anciens, tombés dans l'oubli. Elle pourra être une aide précieuse pour le collectionneur d'objets médicaux anciens. » (Jean-Pierre Martin, Clystère, n° 1, août 2011, Éditorial)
 Médecins, pharmaciens, ingénieurs, chercheurs, les auteurs sollicités œuvrent tous dans le champ de la santé humaine, en effet, ils sont tous historiens et membres des sociétés nationales et internationales d'histoire de la médecine, membres d'associations de sauvegarde du patrimoine médical, ou encore collectionneurs avisés d'instruments médicaux anciens, ce qui garantissait la qualité des articles publiés.
 Devenue une revue de référence, Clystère comptait parmi ses abonnés la plupart des musées français d'histoire de la médecine, les associations de sauvegarde du patrimoine médical, quelques musées étrangers, et de nombreux médecins, dentistes, vétérinaires, paramédicaux, historiens de la médecine ou de la santé.
